--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2363.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2363.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.826695062030666</v>
+        <v>1.010796785354614</v>
       </c>
       <c r="B1">
-        <v>1.550581972890816</v>
+        <v>2.124924182891846</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.002388954162598</v>
       </c>
       <c r="D1">
-        <v>2.134516097447985</v>
+        <v>1.225194931030273</v>
       </c>
       <c r="E1">
-        <v>1.25209961662643</v>
+        <v>1.230377316474915</v>
       </c>
     </row>
   </sheetData>
